--- a/lotes.xlsx
+++ b/lotes.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosunir-my.sharepoint.com/personal/edgaralexis_garcia011_comunidadunir_net/Documents/Escritorio/phyton/appkivy/alexis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{63512297-525D-4E47-81CA-807E988D2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44D5F202-FE6C-4626-9EB4-ED6F066D58B1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{63512297-525D-4E47-81CA-807E988D2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCCF81D-F55B-4C01-890C-3A2D20F2FD36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4047A02-6F76-45AE-BFB6-867462E4A6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">datos!$A$1:$D$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,30 +42,18 @@
     <t>2004-140</t>
   </si>
   <si>
-    <t>12 B</t>
-  </si>
-  <si>
     <t>2004-130</t>
   </si>
   <si>
-    <t>12 A</t>
-  </si>
-  <si>
     <t>2004-120</t>
   </si>
   <si>
     <t>2004-110</t>
   </si>
   <si>
-    <t>14 B</t>
-  </si>
-  <si>
     <t>2004-100</t>
   </si>
   <si>
-    <t>14 A</t>
-  </si>
-  <si>
     <t>2004-090</t>
   </si>
   <si>
@@ -72,27 +63,15 @@
     <t>2004-070</t>
   </si>
   <si>
-    <t>16 B</t>
-  </si>
-  <si>
     <t>2004-060 B</t>
   </si>
   <si>
-    <t>16 A</t>
-  </si>
-  <si>
     <t>2004-060 A</t>
   </si>
   <si>
-    <t>15 A</t>
-  </si>
-  <si>
     <t>2004-050 A</t>
   </si>
   <si>
-    <t>15 B</t>
-  </si>
-  <si>
     <t>2004-050 B</t>
   </si>
   <si>
@@ -115,13 +94,37 @@
   </si>
   <si>
     <t>Area_mz</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>16A</t>
+  </si>
+  <si>
+    <t>16B</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>15B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,12 +145,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -463,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,9 +541,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,619 +902,619 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>26</v>
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="22">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32">
         <v>8</v>
       </c>
       <c r="C2" s="22">
         <v>12</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>1.92</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="20">
+        <v>14</v>
+      </c>
+      <c r="B3" s="33">
         <v>8</v>
       </c>
       <c r="C3" s="20">
         <v>13</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>3.61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="24">
+        <v>14</v>
+      </c>
+      <c r="B4" s="34">
         <v>8</v>
       </c>
       <c r="C4" s="24">
         <v>14</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>2.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="22">
+        <v>13</v>
+      </c>
+      <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" s="22">
         <v>6</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>2.78</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35">
         <v>5</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>4</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="20">
+        <v>13</v>
+      </c>
+      <c r="B7" s="33">
         <v>5</v>
       </c>
       <c r="C7" s="20">
         <v>5</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>3.02</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="24">
+        <v>13</v>
+      </c>
+      <c r="B8" s="34">
         <v>5</v>
       </c>
       <c r="C8" s="24">
         <v>10</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="22">
+        <v>12</v>
+      </c>
+      <c r="B9" s="32">
         <v>6</v>
       </c>
       <c r="C9" s="22">
         <v>7</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>2.95</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="20">
+        <v>12</v>
+      </c>
+      <c r="B10" s="33">
         <v>6</v>
       </c>
       <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>3.19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="24">
+        <v>12</v>
+      </c>
+      <c r="B11" s="34">
         <v>6</v>
       </c>
       <c r="C11" s="24">
         <v>9</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>2.82</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="22">
         <v>11</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <v>3.17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="20">
         <v>18</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>1.92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="20">
         <v>65</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>0.69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="20">
         <v>66</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <v>0.64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="24">
         <v>67</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="22">
         <v>60</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="32">
         <v>1.82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="20">
         <v>61</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>1.72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="20">
         <v>62</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>1.51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="20">
         <v>63</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>1.7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="24">
         <v>64</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>1.23</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="22">
         <v>54</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>2.04</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C23" s="20">
         <v>55</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>1.79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="20">
         <v>56</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>2.83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="20">
         <v>58</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>1.94</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="24">
         <v>59</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>1.96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="22">
         <v>57</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="24">
         <v>53</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34">
         <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="22">
+        <v>7</v>
+      </c>
+      <c r="B29" s="32">
         <v>4</v>
       </c>
       <c r="C29" s="22">
         <v>20</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="32">
         <v>4.05</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="26">
+        <v>7</v>
+      </c>
+      <c r="B30" s="36">
         <v>4</v>
       </c>
       <c r="C30" s="26">
         <v>19</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="24">
+        <v>7</v>
+      </c>
+      <c r="B31" s="34">
         <v>4</v>
       </c>
       <c r="C31" s="24">
         <v>21</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <v>1.69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="22">
+        <v>6</v>
+      </c>
+      <c r="B32" s="32">
         <v>17</v>
       </c>
       <c r="C32" s="22">
         <v>68</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="32">
         <v>1.88</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="20">
+        <v>6</v>
+      </c>
+      <c r="B33" s="33">
         <v>17</v>
       </c>
       <c r="C33" s="20">
         <v>69</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="20">
+        <v>6</v>
+      </c>
+      <c r="B34" s="33">
         <v>17</v>
       </c>
       <c r="C34" s="20">
         <v>74</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>2.4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="20">
+        <v>6</v>
+      </c>
+      <c r="B35" s="33">
         <v>17</v>
       </c>
       <c r="C35" s="20">
         <v>75</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="33">
         <v>2.58</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="24">
+        <v>6</v>
+      </c>
+      <c r="B36" s="34">
         <v>17</v>
       </c>
       <c r="C36" s="24">
         <v>77</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>0.75</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="22">
+        <v>5</v>
+      </c>
+      <c r="B37" s="32">
         <v>18</v>
       </c>
       <c r="C37" s="22">
         <v>70</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="32">
         <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20">
+        <v>5</v>
+      </c>
+      <c r="B38" s="33">
         <v>18</v>
       </c>
       <c r="C38" s="20">
         <v>71</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="20">
+        <v>5</v>
+      </c>
+      <c r="B39" s="33">
         <v>18</v>
       </c>
       <c r="C39" s="20">
         <v>72</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <v>1.54</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="20">
+        <v>5</v>
+      </c>
+      <c r="B40" s="33">
         <v>18</v>
       </c>
       <c r="C40" s="20">
         <v>73</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>3.82</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="24">
+        <v>5</v>
+      </c>
+      <c r="B41" s="34">
         <v>18</v>
       </c>
       <c r="C41" s="24">
         <v>76</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="34">
         <v>1.28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="22">
         <v>32</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="32">
         <v>2.44</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C43" s="20">
         <v>33</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="33">
         <v>2.66</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="C44" s="1">
         <v>34</v>
@@ -1531,66 +1525,66 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="C45" s="18">
         <v>35</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>2.74</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>25</v>
       </c>
       <c r="C46" s="16">
         <v>30</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="38">
         <v>1.45</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="C47" s="14">
         <v>31</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>2.38</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="12">
+        <v>3</v>
+      </c>
+      <c r="B48" s="40">
         <v>13</v>
       </c>
       <c r="C48" s="12">
         <v>36</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="40">
         <v>3.06</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C49" s="9">
         <v>38</v>
@@ -1601,10 +1595,10 @@
     </row>
     <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C50" s="5">
         <v>39</v>
@@ -1615,10 +1609,10 @@
     </row>
     <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C51" s="5">
         <v>40</v>
@@ -1629,10 +1623,10 @@
     </row>
     <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C52" s="1">
         <v>43</v>
@@ -1643,24 +1637,24 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="C53" s="3">
         <v>41</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="41">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="5" t="s">
         <v>1</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="C54" s="5">
         <v>42</v>
@@ -1673,8 +1667,8 @@
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
+      <c r="B55" s="41" t="s">
+        <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>78</v>
@@ -1687,13 +1681,13 @@
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="41">
         <v>10</v>
       </c>
       <c r="C56" s="3">
         <v>47</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="41">
         <v>2.46</v>
       </c>
     </row>
@@ -1701,7 +1695,7 @@
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="7">
         <v>10</v>
       </c>
       <c r="C57" s="1">

--- a/lotes.xlsx
+++ b/lotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosunir-my.sharepoint.com/personal/edgaralexis_garcia011_comunidadunir_net/Documents/Escritorio/phyton/appkivy/alexis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{63512297-525D-4E47-81CA-807E988D2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCCF81D-F55B-4C01-890C-3A2D20F2FD36}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{63512297-525D-4E47-81CA-807E988D2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEBAE005-E6F9-4B14-B681-7532900E0F2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D4047A02-6F76-45AE-BFB6-867462E4A6C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>2004-140</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>15B</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -460,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,9 +501,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +600,46 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,613 +954,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955F7774-047B-4C3D-9241-F545E0BBDA8B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21">
+        <v>12</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1.92</v>
+      </c>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="32">
         <v>8</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C3" s="19">
+        <v>13</v>
+      </c>
+      <c r="D3" s="42">
+        <v>3.61</v>
+      </c>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="33">
+        <v>8</v>
+      </c>
+      <c r="C4" s="23">
+        <v>14</v>
+      </c>
+      <c r="D4" s="43">
+        <v>2.9</v>
+      </c>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="31">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21">
+        <v>6</v>
+      </c>
+      <c r="D5" s="41">
+        <v>2.78</v>
+      </c>
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="34">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" s="44">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="32">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="42">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>10</v>
+      </c>
+      <c r="D8" s="43">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32">
+      <c r="B9" s="31">
+        <v>6</v>
+      </c>
+      <c r="C9" s="21">
+        <v>7</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="32">
+        <v>6</v>
+      </c>
+      <c r="C10" s="19">
+        <v>8</v>
+      </c>
+      <c r="D10" s="42">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="33">
+        <v>6</v>
+      </c>
+      <c r="C11" s="23">
+        <v>9</v>
+      </c>
+      <c r="D11" s="43">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="21">
+        <v>11</v>
+      </c>
+      <c r="D12" s="41">
+        <v>3.17</v>
+      </c>
+      <c r="E12" s="54"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="19">
+        <v>18</v>
+      </c>
+      <c r="D13" s="42">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="33">
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="19">
+        <v>65</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.69</v>
+      </c>
+      <c r="E14" s="54"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19">
+        <v>66</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="23">
+        <v>67</v>
+      </c>
+      <c r="D16" s="43">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21">
+        <v>60</v>
+      </c>
+      <c r="D17" s="41">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19">
+        <v>61</v>
+      </c>
+      <c r="D18" s="42">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="19">
+        <v>62</v>
+      </c>
+      <c r="D19" s="42">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="19">
+        <v>63</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23">
+        <v>64</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21">
+        <v>54</v>
+      </c>
+      <c r="D22" s="41">
+        <v>2.04</v>
+      </c>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="19">
+        <v>55</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="19">
+        <v>56</v>
+      </c>
+      <c r="D24" s="42">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19">
+        <v>58</v>
+      </c>
+      <c r="D25" s="42">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="23">
+        <v>59</v>
+      </c>
+      <c r="D26" s="43">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20">
-        <v>13</v>
-      </c>
-      <c r="D3" s="33">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="34">
+      <c r="B27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21">
+        <v>57</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24">
-        <v>14</v>
-      </c>
-      <c r="D4" s="34">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="B28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="23">
+        <v>53</v>
+      </c>
+      <c r="D28" s="43">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E28" s="54"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="31">
+        <v>4</v>
+      </c>
+      <c r="C29" s="21">
+        <v>20</v>
+      </c>
+      <c r="D29" s="41">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="35">
+        <v>4</v>
+      </c>
+      <c r="C30" s="25">
+        <v>19</v>
+      </c>
+      <c r="D30" s="45">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="33">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23">
+        <v>21</v>
+      </c>
+      <c r="D31" s="43">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="31">
+        <v>17</v>
+      </c>
+      <c r="C32" s="21">
+        <v>68</v>
+      </c>
+      <c r="D32" s="41">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="32">
+        <v>17</v>
+      </c>
+      <c r="C33" s="19">
+        <v>69</v>
+      </c>
+      <c r="D33" s="42">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="32">
+        <v>17</v>
+      </c>
+      <c r="C34" s="19">
+        <v>74</v>
+      </c>
+      <c r="D34" s="42">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32">
+        <v>17</v>
+      </c>
+      <c r="C35" s="19">
+        <v>75</v>
+      </c>
+      <c r="D35" s="42">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="33">
+        <v>17</v>
+      </c>
+      <c r="C36" s="23">
+        <v>77</v>
+      </c>
+      <c r="D36" s="43">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22">
-        <v>6</v>
-      </c>
-      <c r="D5" s="32">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="35">
+      <c r="B37" s="31">
+        <v>18</v>
+      </c>
+      <c r="C37" s="21">
+        <v>70</v>
+      </c>
+      <c r="D37" s="41">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="28">
+      <c r="B38" s="32">
+        <v>18</v>
+      </c>
+      <c r="C38" s="19">
+        <v>71</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="32">
+        <v>18</v>
+      </c>
+      <c r="C39" s="19">
+        <v>72</v>
+      </c>
+      <c r="D39" s="42">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="32">
+        <v>18</v>
+      </c>
+      <c r="C40" s="19">
+        <v>73</v>
+      </c>
+      <c r="D40" s="42">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="33">
+        <v>18</v>
+      </c>
+      <c r="C41" s="23">
+        <v>76</v>
+      </c>
+      <c r="D41" s="43">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="35">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="33">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20">
-        <v>5</v>
-      </c>
-      <c r="D7" s="33">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="34">
-        <v>5</v>
-      </c>
-      <c r="C8" s="24">
-        <v>10</v>
-      </c>
-      <c r="D8" s="34">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="32">
-        <v>6</v>
-      </c>
-      <c r="C9" s="22">
-        <v>7</v>
-      </c>
-      <c r="D9" s="32">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="33">
-        <v>6</v>
-      </c>
-      <c r="C10" s="20">
-        <v>8</v>
-      </c>
-      <c r="D10" s="33">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="34">
-        <v>6</v>
-      </c>
-      <c r="C11" s="24">
-        <v>9</v>
-      </c>
-      <c r="D11" s="34">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="22">
-        <v>11</v>
-      </c>
-      <c r="D12" s="32">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20">
-        <v>18</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="20">
-        <v>65</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20">
-        <v>66</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="24">
-        <v>67</v>
-      </c>
-      <c r="D16" s="34">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="22">
-        <v>60</v>
-      </c>
-      <c r="D17" s="32">
-        <v>1.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="20">
-        <v>61</v>
-      </c>
-      <c r="D18" s="33">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="20">
-        <v>62</v>
-      </c>
-      <c r="D19" s="33">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="20">
-        <v>63</v>
-      </c>
-      <c r="D20" s="33">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="24">
-        <v>64</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="22">
-        <v>54</v>
-      </c>
-      <c r="D22" s="32">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20">
-        <v>55</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="20">
-        <v>56</v>
-      </c>
-      <c r="D24" s="33">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="20">
-        <v>58</v>
-      </c>
-      <c r="D25" s="33">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="24">
-        <v>59</v>
-      </c>
-      <c r="D26" s="34">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="22">
-        <v>57</v>
-      </c>
-      <c r="D27" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="24">
-        <v>53</v>
-      </c>
-      <c r="D28" s="34">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="32">
+      <c r="B42" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="21">
+        <v>32</v>
+      </c>
+      <c r="D42" s="41">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="22">
-        <v>20</v>
-      </c>
-      <c r="D29" s="32">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="36">
-        <v>4</v>
-      </c>
-      <c r="C30" s="26">
-        <v>19</v>
-      </c>
-      <c r="D30" s="36">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="34">
-        <v>4</v>
-      </c>
-      <c r="C31" s="24">
+      <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="34">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="32">
-        <v>17</v>
-      </c>
-      <c r="C32" s="22">
-        <v>68</v>
-      </c>
-      <c r="D32" s="32">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="33">
-        <v>17</v>
-      </c>
-      <c r="C33" s="20">
-        <v>69</v>
-      </c>
-      <c r="D33" s="33">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="33">
-        <v>17</v>
-      </c>
-      <c r="C34" s="20">
-        <v>74</v>
-      </c>
-      <c r="D34" s="33">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="33">
-        <v>17</v>
-      </c>
-      <c r="C35" s="20">
-        <v>75</v>
-      </c>
-      <c r="D35" s="33">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="34">
-        <v>17</v>
-      </c>
-      <c r="C36" s="24">
-        <v>77</v>
-      </c>
-      <c r="D36" s="34">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="32">
-        <v>18</v>
-      </c>
-      <c r="C37" s="22">
-        <v>70</v>
-      </c>
-      <c r="D37" s="32">
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="33">
-        <v>18</v>
-      </c>
-      <c r="C38" s="20">
-        <v>71</v>
-      </c>
-      <c r="D38" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="33">
-        <v>18</v>
-      </c>
-      <c r="C39" s="20">
-        <v>72</v>
-      </c>
-      <c r="D39" s="33">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="33">
-        <v>18</v>
-      </c>
-      <c r="C40" s="20">
-        <v>73</v>
-      </c>
-      <c r="D40" s="33">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="34">
-        <v>18</v>
-      </c>
-      <c r="C41" s="24">
-        <v>76</v>
-      </c>
-      <c r="D41" s="34">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="22">
-        <v>32</v>
-      </c>
-      <c r="D42" s="32">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="20">
+      <c r="C43" s="19">
         <v>33</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="42">
         <v>2.66</v>
       </c>
     </row>
@@ -1513,185 +1578,185 @@
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="1">
         <v>34</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="46">
         <v>2.75</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>35</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="47">
         <v>2.74</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>30</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="48">
         <v>1.45</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <v>31</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="49">
         <v>2.38</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="39">
         <v>13</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>36</v>
       </c>
-      <c r="D48" s="40">
+      <c r="D48" s="50">
         <v>3.06</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>38</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="51">
         <v>1.35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="5">
         <v>39</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="52">
         <v>1.84</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C51" s="5">
         <v>40</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="52">
         <v>1.27</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="1">
         <v>43</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="46">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="3">
         <v>41</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="53">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C54" s="5">
         <v>42</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="52">
         <v>2.35</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>78</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="46">
         <v>1.74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="40">
         <v>10</v>
       </c>
       <c r="C56" s="3">
         <v>47</v>
       </c>
-      <c r="D56" s="41">
+      <c r="D56" s="53">
         <v>2.46</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -1701,9 +1766,10 @@
       <c r="C57" s="1">
         <v>48</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="46">
         <v>1.79</v>
       </c>
+      <c r="E57" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
